--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -543,10 +543,10 @@
         <v>1.850333</v>
       </c>
       <c r="I2">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J2">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.28388233333333</v>
+        <v>15.25136533333333</v>
       </c>
       <c r="N2">
-        <v>48.851647</v>
+        <v>45.754096</v>
       </c>
       <c r="O2">
-        <v>0.3486636287871168</v>
+        <v>0.3045917506163436</v>
       </c>
       <c r="P2">
-        <v>0.3486636287871168</v>
+        <v>0.3045917506163436</v>
       </c>
       <c r="Q2">
-        <v>10.04353494982789</v>
+        <v>9.406701523774222</v>
       </c>
       <c r="R2">
-        <v>90.39181454845099</v>
+        <v>84.66031371396799</v>
       </c>
       <c r="S2">
-        <v>0.2732240870821142</v>
+        <v>0.2795933504813746</v>
       </c>
       <c r="T2">
-        <v>0.2732240870821142</v>
+        <v>0.2795933504813746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1.850333</v>
       </c>
       <c r="I3">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J3">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>44.498655</v>
       </c>
       <c r="O3">
-        <v>0.3175954851316677</v>
+        <v>0.2962340951184504</v>
       </c>
       <c r="P3">
-        <v>0.3175954851316677</v>
+        <v>0.2962340951184504</v>
       </c>
       <c r="Q3">
         <v>9.148592200234999</v>
@@ -635,10 +635,10 @@
         <v>82.33732980211499</v>
       </c>
       <c r="S3">
-        <v>0.2488780857021455</v>
+        <v>0.271921623003212</v>
       </c>
       <c r="T3">
-        <v>0.2488780857021454</v>
+        <v>0.271921623003212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>1.850333</v>
       </c>
       <c r="I4">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J4">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.566438666666667</v>
+        <v>11.41743966666667</v>
       </c>
       <c r="N4">
-        <v>16.699316</v>
+        <v>34.252319</v>
       </c>
       <c r="O4">
-        <v>0.1191862398175185</v>
+        <v>0.2280227284324326</v>
       </c>
       <c r="P4">
-        <v>0.1191862398175185</v>
+        <v>0.2280227284324326</v>
       </c>
       <c r="Q4">
-        <v>3.433255052469778</v>
+        <v>7.042021796914111</v>
       </c>
       <c r="R4">
-        <v>30.899295472228</v>
+        <v>63.378196172227</v>
       </c>
       <c r="S4">
-        <v>0.0933981891950489</v>
+        <v>0.2093084875060551</v>
       </c>
       <c r="T4">
-        <v>0.09339818919504887</v>
+        <v>0.2093084875060551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.850333</v>
       </c>
       <c r="I5">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J5">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.02049633333333</v>
+        <v>8.569808333333333</v>
       </c>
       <c r="N5">
-        <v>30.061489</v>
+        <v>25.709425</v>
       </c>
       <c r="O5">
-        <v>0.214554646263697</v>
+        <v>0.1711514258327733</v>
       </c>
       <c r="P5">
-        <v>0.214554646263697</v>
+        <v>0.1711514258327733</v>
       </c>
       <c r="Q5">
-        <v>6.180418347315222</v>
+        <v>5.285666387613889</v>
       </c>
       <c r="R5">
-        <v>55.623765125837</v>
+        <v>47.570997488525</v>
       </c>
       <c r="S5">
-        <v>0.1681319544529178</v>
+        <v>0.157104716366806</v>
       </c>
       <c r="T5">
-        <v>0.1681319544529178</v>
+        <v>0.157104716366806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H6">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I6">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J6">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.28388233333333</v>
+        <v>15.25136533333333</v>
       </c>
       <c r="N6">
-        <v>48.851647</v>
+        <v>45.754096</v>
       </c>
       <c r="O6">
-        <v>0.3486636287871168</v>
+        <v>0.3045917506163436</v>
       </c>
       <c r="P6">
-        <v>0.3486636287871168</v>
+        <v>0.3045917506163436</v>
       </c>
       <c r="Q6">
-        <v>2.773107165641223</v>
+        <v>0.8410517926719999</v>
       </c>
       <c r="R6">
-        <v>24.957964490771</v>
+        <v>7.569466134048</v>
       </c>
       <c r="S6">
-        <v>0.0754395417050026</v>
+        <v>0.02499840013496903</v>
       </c>
       <c r="T6">
-        <v>0.0754395417050026</v>
+        <v>0.02499840013496903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H7">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I7">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J7">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>44.498655</v>
       </c>
       <c r="O7">
-        <v>0.3175954851316677</v>
+        <v>0.2962340951184504</v>
       </c>
       <c r="P7">
-        <v>0.3175954851316677</v>
+        <v>0.2962340951184504</v>
       </c>
       <c r="Q7">
-        <v>2.526005705435</v>
+        <v>0.81797427621</v>
       </c>
       <c r="R7">
-        <v>22.734051348915</v>
+        <v>7.36176848589</v>
       </c>
       <c r="S7">
-        <v>0.06871739942952225</v>
+        <v>0.02431247211523839</v>
       </c>
       <c r="T7">
-        <v>0.06871739942952225</v>
+        <v>0.02431247211523839</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H8">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I8">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J8">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.566438666666667</v>
+        <v>11.41743966666667</v>
       </c>
       <c r="N8">
-        <v>16.699316</v>
+        <v>34.252319</v>
       </c>
       <c r="O8">
-        <v>0.1191862398175185</v>
+        <v>0.2280227284324326</v>
       </c>
       <c r="P8">
-        <v>0.1191862398175185</v>
+        <v>0.2280227284324326</v>
       </c>
       <c r="Q8">
-        <v>0.9479515165764445</v>
+        <v>0.629626127858</v>
       </c>
       <c r="R8">
-        <v>8.531563649188001</v>
+        <v>5.666635150722</v>
       </c>
       <c r="S8">
-        <v>0.02578805062246964</v>
+        <v>0.01871424092637744</v>
       </c>
       <c r="T8">
-        <v>0.02578805062246964</v>
+        <v>0.01871424092637744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H9">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I9">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J9">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.02049633333333</v>
+        <v>8.569808333333333</v>
       </c>
       <c r="N9">
-        <v>30.061489</v>
+        <v>25.709425</v>
       </c>
       <c r="O9">
-        <v>0.214554646263697</v>
+        <v>0.1711514258327733</v>
       </c>
       <c r="P9">
-        <v>0.214554646263697</v>
+        <v>0.1711514258327733</v>
       </c>
       <c r="Q9">
-        <v>1.706467144408556</v>
+        <v>0.47259065035</v>
       </c>
       <c r="R9">
-        <v>15.358204299677</v>
+        <v>4.25331585315</v>
       </c>
       <c r="S9">
-        <v>0.04642269181077922</v>
+        <v>0.01404670946596729</v>
       </c>
       <c r="T9">
-        <v>0.04642269181077921</v>
+        <v>0.01404670946596729</v>
       </c>
     </row>
   </sheetData>
